--- a/MyHints.xlsx
+++ b/MyHints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/psol/Documents/ProblemSolving/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAE742BC-BB6D-DB4C-A366-F763923B9804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4794E8CD-090E-EC45-8798-69B5A63911CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{F8E361A5-22B9-4240-8BC8-52C1D347E6C7}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{F8E361A5-22B9-4240-8BC8-52C1D347E6C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>PROBLEM</t>
   </si>
@@ -57,13 +57,48 @@
   </si>
   <si>
     <t xml:space="preserve">use two pointers within a while loop to keep track of the current and next item of the input string array. Create a dictionary of Roman to Integer, if current &gt; next, add current to running total, else subtract. Get the last value from dictionary from current index  and add to total. </t>
+  </si>
+  <si>
+    <t>LONGEST COMM PREFIX</t>
+  </si>
+  <si>
+    <t>put strings into an array. Compare two strings at a time, one character at a time to find matching characters. When you find a match, append to a result string, use two for loops, watch out for edge cases like when string arr conatins only two words, or string contains just one word, or result string is empty.</t>
+  </si>
+  <si>
+    <t>VALID PARENTHESES</t>
+  </si>
+  <si>
+    <r>
+      <t>use two stacks. Push all string content into stack1. then within a for loop, pop from stack1 and pop from stack2, concatinate both pops into a result, check if result matches a valid value (ie (),[],{}). If it doesn’t match, (*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">swift </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>push to stack 2 the pop from stack1 and stack2)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +110,14 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE287B7-E7B1-A34A-B32A-2EBD5518F426}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -466,6 +509,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="85">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="85">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MyHints.xlsx
+++ b/MyHints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/psol/Documents/ProblemSolving/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4794E8CD-090E-EC45-8798-69B5A63911CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF02DD2A-40A2-DE44-AD06-976E9B523D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{F8E361A5-22B9-4240-8BC8-52C1D347E6C7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>PROBLEM</t>
   </si>
@@ -92,6 +92,24 @@
       </rPr>
       <t>push to stack 2 the pop from stack1 and stack2)</t>
     </r>
+  </si>
+  <si>
+    <t>MaxSum of SubArray</t>
+  </si>
+  <si>
+    <t>Implement naïve On2 solution using two loops. Keeping track of the maxSum.</t>
+  </si>
+  <si>
+    <t>Use divide and conquer. Find maxLeft, maxCenter of the crossing array and maxRight. Find the max of mLeft, mRight, mCenter. Hint for swift leftSum starts from 0, rightSum starts from m.</t>
+  </si>
+  <si>
+    <t>EASY IMPROVEMENT</t>
+  </si>
+  <si>
+    <t>lengthOfLastWord</t>
+  </si>
+  <si>
+    <t>break string into array. Push all into stack. popLast for string value &gt;= 1</t>
   </si>
 </sst>
 </file>
@@ -463,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE287B7-E7B1-A34A-B32A-2EBD5518F426}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -531,6 +549,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="34">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MyHints.xlsx
+++ b/MyHints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/psol/Documents/ProblemSolving/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF02DD2A-40A2-DE44-AD06-976E9B523D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE48E2-CE83-DF43-A807-DDB9E755734E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{F8E361A5-22B9-4240-8BC8-52C1D347E6C7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>PROBLEM</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>break string into array. Push all into stack. popLast for string value &gt;= 1</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>Plus One( Adding 1 to large intDo not attempt to convert from dtring to Int. Instead use for loop from behind/reversed, and for every count in the for loop, use a while loop to pop the last item and add 1. maintain condition if sum &gt; 9</t>
   </si>
 </sst>
 </file>
@@ -481,9 +487,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE287B7-E7B1-A34A-B32A-2EBD5518F426}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -579,6 +585,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="68">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MyHints.xlsx
+++ b/MyHints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/psol/Documents/ProblemSolving/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE48E2-CE83-DF43-A807-DDB9E755734E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2762AFF0-810A-1449-BFCC-AACE4F041FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{F8E361A5-22B9-4240-8BC8-52C1D347E6C7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>PROBLEM</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Plus One( Adding 1 to large intDo not attempt to convert from dtring to Int. Instead use for loop from behind/reversed, and for every count in the for loop, use a while loop to pop the last item and add 1. maintain condition if sum &gt; 9</t>
+  </si>
+  <si>
+    <t>addBinary</t>
+  </si>
+  <si>
+    <t>if the sum is equal to 2. do a modulus of 2 and keep the result in an appendable string, divide 2 by 2 and take the remainder of 1 to the next value. If the sum is 0 or 1 append to result.</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE287B7-E7B1-A34A-B32A-2EBD5518F426}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -596,6 +602,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:3" ht="51">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
